--- a/result/NCDC_weather_data/stations_imputed/56196099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/56196099999.xlsx
@@ -581,7 +581,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -639,7 +641,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -697,7 +701,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -755,7 +761,9 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -813,7 +821,9 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -871,7 +881,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -929,7 +941,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -987,7 +1001,9 @@
       <c r="Q9" t="n">
         <v>0</v>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1045,7 +1061,9 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1103,7 +1121,9 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1161,7 +1181,9 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1219,7 +1241,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1277,7 +1301,9 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1335,7 +1361,9 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1393,7 +1421,9 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1451,7 +1481,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1509,7 +1541,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1567,7 +1601,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1625,7 +1661,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1683,7 +1721,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1741,7 +1781,9 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1799,7 +1841,9 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1857,7 +1901,9 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1915,7 +1961,9 @@
       <c r="Q25" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1973,7 +2021,9 @@
       <c r="Q26" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2031,7 +2081,9 @@
       <c r="Q27" t="n">
         <v>0.002286</v>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2089,7 +2141,9 @@
       <c r="Q28" t="n">
         <v>0.00127</v>
       </c>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2147,7 +2201,9 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
-      <c r="R29" t="inlineStr"/>
+      <c r="R29" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2205,7 +2261,9 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2263,7 +2321,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2321,7 +2381,9 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2379,7 +2441,9 @@
       <c r="Q33" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R33" t="inlineStr"/>
+      <c r="R33" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2437,7 +2501,9 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2495,7 +2561,9 @@
       <c r="Q35" t="n">
         <v>0</v>
       </c>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2553,7 +2621,9 @@
       <c r="Q36" t="n">
         <v>0.001524</v>
       </c>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2611,7 +2681,9 @@
       <c r="Q37" t="n">
         <v>0.00635</v>
       </c>
-      <c r="R37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2669,7 +2741,9 @@
       <c r="Q38" t="n">
         <v>0.001778</v>
       </c>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2727,7 +2801,9 @@
       <c r="Q39" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2785,7 +2861,9 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2843,7 +2921,9 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2901,7 +2981,9 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2959,7 +3041,9 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3017,7 +3101,9 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3075,7 +3161,9 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3133,7 +3221,9 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
-      <c r="R46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3191,7 +3281,9 @@
       <c r="Q47" t="n">
         <v>0</v>
       </c>
-      <c r="R47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3249,7 +3341,9 @@
       <c r="Q48" t="n">
         <v>0.002032</v>
       </c>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3307,7 +3401,9 @@
       <c r="Q49" t="n">
         <v>0.003302</v>
       </c>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3365,7 +3461,9 @@
       <c r="Q50" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3423,7 +3521,9 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
-      <c r="R51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3481,7 +3581,9 @@
       <c r="Q52" t="n">
         <v>0.005588</v>
       </c>
-      <c r="R52" t="inlineStr"/>
+      <c r="R52" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3539,7 +3641,9 @@
       <c r="Q53" t="n">
         <v>0.002794</v>
       </c>
-      <c r="R53" t="inlineStr"/>
+      <c r="R53" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3597,7 +3701,9 @@
       <c r="Q54" t="n">
         <v>0.004318</v>
       </c>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3655,7 +3761,9 @@
       <c r="Q55" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3713,7 +3821,9 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3771,7 +3881,9 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
-      <c r="R57" t="inlineStr"/>
+      <c r="R57" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3829,7 +3941,9 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3887,7 +4001,9 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3945,7 +4061,9 @@
       <c r="Q60" t="n">
         <v>0.000762</v>
       </c>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4003,7 +4121,9 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4061,7 +4181,9 @@
       <c r="Q62" t="n">
         <v>0</v>
       </c>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4119,7 +4241,9 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4177,7 +4301,9 @@
       <c r="Q64" t="n">
         <v>0</v>
       </c>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4235,7 +4361,9 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4293,7 +4421,9 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
-      <c r="R66" t="inlineStr"/>
+      <c r="R66" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4351,7 +4481,9 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
-      <c r="R67" t="inlineStr"/>
+      <c r="R67" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4409,7 +4541,9 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
-      <c r="R68" t="inlineStr"/>
+      <c r="R68" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4467,7 +4601,9 @@
       <c r="Q69" t="n">
         <v>0</v>
       </c>
-      <c r="R69" t="inlineStr"/>
+      <c r="R69" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4525,7 +4661,9 @@
       <c r="Q70" t="n">
         <v>0</v>
       </c>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4583,7 +4721,9 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
-      <c r="R71" t="inlineStr"/>
+      <c r="R71" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4641,7 +4781,9 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
-      <c r="R72" t="inlineStr"/>
+      <c r="R72" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4699,7 +4841,9 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
-      <c r="R73" t="inlineStr"/>
+      <c r="R73" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4757,7 +4901,9 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
-      <c r="R74" t="inlineStr"/>
+      <c r="R74" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4815,7 +4961,9 @@
       <c r="Q75" t="n">
         <v>0</v>
       </c>
-      <c r="R75" t="inlineStr"/>
+      <c r="R75" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4873,7 +5021,9 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
-      <c r="R76" t="inlineStr"/>
+      <c r="R76" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4931,7 +5081,9 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
-      <c r="R77" t="inlineStr"/>
+      <c r="R77" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4989,7 +5141,9 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
-      <c r="R78" t="inlineStr"/>
+      <c r="R78" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5047,7 +5201,9 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
-      <c r="R79" t="inlineStr"/>
+      <c r="R79" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5105,7 +5261,9 @@
       <c r="Q80" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R80" t="inlineStr"/>
+      <c r="R80" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5163,7 +5321,9 @@
       <c r="Q81" t="n">
         <v>0.002286</v>
       </c>
-      <c r="R81" t="inlineStr"/>
+      <c r="R81" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5221,7 +5381,9 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
-      <c r="R82" t="inlineStr"/>
+      <c r="R82" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5279,7 +5441,9 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
-      <c r="R83" t="inlineStr"/>
+      <c r="R83" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5337,7 +5501,9 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
-      <c r="R84" t="inlineStr"/>
+      <c r="R84" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5395,7 +5561,9 @@
       <c r="Q85" t="n">
         <v>0.003302</v>
       </c>
-      <c r="R85" t="inlineStr"/>
+      <c r="R85" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5453,7 +5621,9 @@
       <c r="Q86" t="n">
         <v>0.000762</v>
       </c>
-      <c r="R86" t="inlineStr"/>
+      <c r="R86" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5511,7 +5681,9 @@
       <c r="Q87" t="n">
         <v>0</v>
       </c>
-      <c r="R87" t="inlineStr"/>
+      <c r="R87" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5569,7 +5741,9 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
-      <c r="R88" t="inlineStr"/>
+      <c r="R88" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5627,7 +5801,9 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
-      <c r="R89" t="inlineStr"/>
+      <c r="R89" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5685,7 +5861,9 @@
       <c r="Q90" t="n">
         <v>0.00635</v>
       </c>
-      <c r="R90" t="inlineStr"/>
+      <c r="R90" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5743,7 +5921,9 @@
       <c r="Q91" t="n">
         <v>0.00508</v>
       </c>
-      <c r="R91" t="inlineStr"/>
+      <c r="R91" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5801,7 +5981,9 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
-      <c r="R92" t="inlineStr"/>
+      <c r="R92" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5859,7 +6041,9 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
-      <c r="R93" t="inlineStr"/>
+      <c r="R93" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5917,7 +6101,9 @@
       <c r="Q94" t="n">
         <v>0.002794</v>
       </c>
-      <c r="R94" t="inlineStr"/>
+      <c r="R94" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5975,7 +6161,9 @@
       <c r="Q95" t="n">
         <v>0.002794</v>
       </c>
-      <c r="R95" t="inlineStr"/>
+      <c r="R95" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6033,7 +6221,9 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
-      <c r="R96" t="inlineStr"/>
+      <c r="R96" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -6091,7 +6281,9 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
-      <c r="R97" t="inlineStr"/>
+      <c r="R97" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -6149,7 +6341,9 @@
       <c r="Q98" t="n">
         <v>0</v>
       </c>
-      <c r="R98" t="inlineStr"/>
+      <c r="R98" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -6207,7 +6401,9 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
-      <c r="R99" t="inlineStr"/>
+      <c r="R99" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6265,7 +6461,9 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
-      <c r="R100" t="inlineStr"/>
+      <c r="R100" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6323,7 +6521,9 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
-      <c r="R101" t="inlineStr"/>
+      <c r="R101" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6381,7 +6581,9 @@
       <c r="Q102" t="n">
         <v>0.004064</v>
       </c>
-      <c r="R102" t="inlineStr"/>
+      <c r="R102" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6439,7 +6641,9 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
-      <c r="R103" t="inlineStr"/>
+      <c r="R103" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6497,7 +6701,9 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
-      <c r="R104" t="inlineStr"/>
+      <c r="R104" t="n">
+        <v>0.01016</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
